--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3555497.899592091</v>
+        <v>3557258.429894876</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283167</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7834278.115728339</v>
+        <v>7834278.115728337</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>12.28773869504415</v>
       </c>
       <c r="H2" t="n">
-        <v>128.5489659308906</v>
+        <v>240.4304557868047</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>240.6744911775474</v>
+        <v>14.96483578851024</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>76.14977326853447</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>18.51469624426484</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544768061</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.9354087744535</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.71437374394037</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555436</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.1392412509882</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0176515909801</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U6" t="n">
         <v>225.8084047615432</v>
@@ -1071,7 +1071,7 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.1610602114471</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>33.93089591115166</v>
+        <v>33.93089591116134</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>242.4791688137919</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>256.4860334078127</v>
       </c>
       <c r="G8" t="n">
         <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.71437374394037</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555436</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.1392412509882</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0176515909801</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U9" t="n">
         <v>225.8084047615432</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>60.86538463673702</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>60.86538463674702</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1423,7 +1423,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>178.5134655978075</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>11.79076481679262</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>130.5513683573773</v>
+        <v>130.5513683573768</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695582</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128558</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364137</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.294712846224</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012214</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820796918</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917709818</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695582</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576152</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128558</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364137</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819363</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986268</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182113</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465681</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229302</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922678</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>26.13627195706793</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856482</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892431</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323827</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.52299833659</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890361</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520938</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819363</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986268</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922678</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462229</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012066</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016436</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272872</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892431</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323827</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146687</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890361</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520938</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3240,10 +3240,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3319,7 +3319,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3556,7 +3556,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>34.2105855891487</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1813.253594101052</v>
+        <v>1087.019180569858</v>
       </c>
       <c r="C2" t="n">
-        <v>1444.29107716064</v>
+        <v>718.0566636294463</v>
       </c>
       <c r="D2" t="n">
-        <v>1086.02537855389</v>
+        <v>718.0566636294463</v>
       </c>
       <c r="E2" t="n">
-        <v>700.2371259556458</v>
+        <v>718.0566636294463</v>
       </c>
       <c r="F2" t="n">
-        <v>289.2512211660382</v>
+        <v>307.0707588398388</v>
       </c>
       <c r="G2" t="n">
-        <v>276.8393638983168</v>
+        <v>294.6589015721174</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640839</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
@@ -4333,25 +4333,25 @@
         <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872677</v>
+        <v>776.0043429178248</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054598</v>
+        <v>1013.627124136017</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463063</v>
+        <v>1309.69769069362</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698648</v>
+        <v>1646.417767912933</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015283</v>
+        <v>2287.440977532827</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394154</v>
+        <v>2487.74530482193</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4369,13 +4369,13 @@
         <v>2589.992766140986</v>
       </c>
       <c r="W2" t="n">
-        <v>2589.992766140986</v>
+        <v>2237.224110870871</v>
       </c>
       <c r="X2" t="n">
-        <v>2589.992766140986</v>
+        <v>1863.758352609791</v>
       </c>
       <c r="Y2" t="n">
-        <v>2199.853434165174</v>
+        <v>1473.61902063398</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669849</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615294</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093836</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072345</v>
+        <v>282.3826491045396</v>
       </c>
       <c r="L3" t="n">
-        <v>532.9594726600656</v>
+        <v>859.1054642077952</v>
       </c>
       <c r="M3" t="n">
-        <v>796.8990041555533</v>
+        <v>1123.044995703283</v>
       </c>
       <c r="N3" t="n">
-        <v>1437.922213775447</v>
+        <v>1408.378866136616</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113547</v>
+        <v>2037.107513972037</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4445,7 +4445,7 @@
         <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4527,7 +4527,7 @@
         <v>1311.202309361123</v>
       </c>
       <c r="W4" t="n">
-        <v>1068.096762717136</v>
+        <v>1296.086313615153</v>
       </c>
       <c r="X4" t="n">
         <v>1068.096762717136</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1722.907598314775</v>
+        <v>2075.676253584918</v>
       </c>
       <c r="C5" t="n">
-        <v>1353.945081374364</v>
+        <v>1706.713736644507</v>
       </c>
       <c r="D5" t="n">
-        <v>995.6793827676133</v>
+        <v>1348.448038037756</v>
       </c>
       <c r="E5" t="n">
-        <v>609.891130169369</v>
+        <v>962.659785439512</v>
       </c>
       <c r="F5" t="n">
-        <v>532.9721672718595</v>
+        <v>551.6738806499045</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719915</v>
+        <v>135.9920388500365</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719915</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281915</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104755</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135456</v>
+        <v>447.8319447135514</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477293</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187489</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539954</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.81819508204</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645532</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507435</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140957</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560701</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.815585560701</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.815585560701</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.815585560701</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.046930290587</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="X5" t="n">
-        <v>2113.046930290587</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="Y5" t="n">
-        <v>1722.907598314775</v>
+        <v>2075.676253584918</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065183</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281915</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096192</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>573.7192355186173</v>
+        <v>563.7673318682815</v>
       </c>
       <c r="L6" t="n">
-        <v>871.0311846349293</v>
+        <v>861.0792809845962</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.337074127252</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N6" t="n">
-        <v>1627.746635452991</v>
+        <v>1617.794731802664</v>
       </c>
       <c r="O6" t="n">
-        <v>1962.675316168519</v>
+        <v>1952.723412518195</v>
       </c>
       <c r="P6" t="n">
-        <v>2212.152044033536</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4701,70 +4701,70 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>982.2794430485942</v>
+        <v>982.2794430485947</v>
       </c>
       <c r="C7" t="n">
-        <v>813.3432601206873</v>
+        <v>813.3432601206878</v>
       </c>
       <c r="D7" t="n">
-        <v>663.2266207083516</v>
+        <v>663.226620708352</v>
       </c>
       <c r="E7" t="n">
-        <v>515.3135271259584</v>
+        <v>515.3135271259589</v>
       </c>
       <c r="F7" t="n">
-        <v>368.4235796280481</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="G7" t="n">
-        <v>200.4473908899374</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281915</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281915</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080421</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121947</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225404</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317366</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750626</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
-        <v>1391.602671897091</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634801</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
-        <v>1646.983670153868</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153868</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153868</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153868</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1646.983670153868</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>1646.983670153868</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>1612.710037920381</v>
+        <v>1612.710037920382</v>
       </c>
       <c r="X7" t="n">
         <v>1384.720487022364</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1850.624270806721</v>
+        <v>1850.62427080675</v>
       </c>
       <c r="C8" t="n">
-        <v>1481.66175386631</v>
+        <v>1481.661753866338</v>
       </c>
       <c r="D8" t="n">
-        <v>1123.396055259559</v>
+        <v>1481.661753866338</v>
       </c>
       <c r="E8" t="n">
-        <v>878.4676019122948</v>
+        <v>1095.873501268094</v>
       </c>
       <c r="F8" t="n">
-        <v>467.4816971226872</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281915</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281915</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281915</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104755</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135456</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477292</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187489</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539954</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.81819508204</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645533</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507435</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140957</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140957</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140957</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140957</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140957</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W8" t="n">
-        <v>2237.224110870843</v>
+        <v>2237.224110870872</v>
       </c>
       <c r="X8" t="n">
-        <v>2237.224110870843</v>
+        <v>2237.224110870872</v>
       </c>
       <c r="Y8" t="n">
-        <v>2237.224110870843</v>
+        <v>2237.224110870872</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065183</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281915</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096192</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>688.5974568552826</v>
+        <v>563.7673318682818</v>
       </c>
       <c r="L9" t="n">
-        <v>985.9094059715947</v>
+        <v>1104.091621317938</v>
       </c>
       <c r="M9" t="n">
-        <v>1352.215295463917</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N9" t="n">
-        <v>1742.624856789656</v>
+        <v>1860.807072136006</v>
       </c>
       <c r="O9" t="n">
-        <v>2077.553537505185</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2327.030265370201</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>727.1359052451198</v>
+        <v>727.1359052451305</v>
       </c>
       <c r="C10" t="n">
-        <v>558.1997223172129</v>
+        <v>558.1997223172236</v>
       </c>
       <c r="D10" t="n">
-        <v>408.0830829048772</v>
+        <v>408.0830829048879</v>
       </c>
       <c r="E10" t="n">
-        <v>260.1699893224841</v>
+        <v>260.1699893224948</v>
       </c>
       <c r="F10" t="n">
-        <v>113.2800418245737</v>
+        <v>113.2800418245844</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281915</v>
+        <v>113.2800418245844</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281915</v>
+        <v>113.2800418245844</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281915</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080421</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121947</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225404</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317366</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750626</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
-        <v>1391.602671897091</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634801</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153868</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153868</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153868</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153868</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153868</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1646.983670153868</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>1357.566500116907</v>
+        <v>1357.566500116918</v>
       </c>
       <c r="X10" t="n">
-        <v>1129.57694921889</v>
+        <v>1129.5769492189</v>
       </c>
       <c r="Y10" t="n">
-        <v>908.7843700753596</v>
+        <v>908.7843700753702</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168627</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5065,28 +5065,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
@@ -5132,7 +5132,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190824</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5235,16 +5235,16 @@
         <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,28 +5290,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459586</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6019060180517</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D16" t="n">
-        <v>449.485266605716</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E16" t="n">
-        <v>449.485266605716</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F16" t="n">
-        <v>449.485266605716</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817746</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
         <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761984</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,22 +5533,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,22 +5746,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,40 +5980,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192457</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111681</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075746</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332377</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014765</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355918</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291067988</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694682</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.774219330013</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.239661356898</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756254</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.388077746844</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.7136839626</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589149</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143752</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6101,7 +6101,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
         <v>1781.463605996603</v>
@@ -6110,7 +6110,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
         <v>1111.614450297915</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188009</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057739</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.052681478295</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038325</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797711</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570811</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279794</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853352</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358025</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832652</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925707</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490406</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551849</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6211,67 +6211,67 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479713</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111681</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075757</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332379</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014766</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355921</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106799</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694683</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852229</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398565</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749255</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474756</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466546</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612122975</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852861</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591781</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615969</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778461</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967192</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354679</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300124</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568974</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028052</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.8166630479713</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.8166630479713</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756248</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468435</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.7136839626</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589148</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143752</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6332,7 +6332,7 @@
         <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963387</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
         <v>2244.643795685161</v>
@@ -6341,7 +6341,7 @@
         <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996602</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
         <v>1527.226249268401</v>
@@ -6350,7 +6350,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297914</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.355603809827</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819212</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695865</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>516.3896878871944</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4997403892851</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>202.303641104166</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.903366400057</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.8166630479713</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580258</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580258</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580258</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924457</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783595</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640066</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6454,25 +6454,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6481,13 +6481,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764187977</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908918</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908918</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908918</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908918</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057727</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782967</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038364</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797775</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570823</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279809</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853368</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580269</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832672</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487578</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.46108051052</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854719</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648833</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290582</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925655</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490364</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
@@ -6888,7 +6888,7 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
         <v>1746.193029533436</v>
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7569,37 +7569,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
         <v>1735.314832085242</v>
@@ -7639,13 +7639,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>210.4595134598044</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>151.6735093079757</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7990,19 +7990,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>31.56057675124072</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>369.6030205083429</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>84.69108553970693</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945059</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>153.9432662491317</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>148.4266296018055</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>245.46701043772</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>245.4670104377188</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>119.3759750973306</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906655</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.277957053354437e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>-9.368965401895893e-13</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>73.62417772602052</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9188905722445</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>34.97276993489157</v>
+        <v>34.97276993489206</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856585</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.22910392195298</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>114.158440889155</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012112</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016437</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272873</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182113</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465681</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229302</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856451</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392192125</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>688002.868029491</v>
+        <v>688002.8680294909</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>688002.868029491</v>
+        <v>688002.8680294908</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>671385.4404293662</v>
+        <v>671385.4404293661</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>671385.4404293658</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>671385.4404293664</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671385.4404293667</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>671385.4404293661</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>671385.440429366</v>
+        <v>671385.4404293662</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>671385.4404293661</v>
+        <v>671385.4404293662</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244617</v>
+        <v>759463.6371244616</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244628</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.637124463</v>
+        <v>759463.6371244618</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="G2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="L2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="N2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132553</v>
@@ -26368,13 +26368,13 @@
         <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898849</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457576</v>
+        <v>500888.8677457507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,25 +26386,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.783371310554988e-09</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260469</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
-        <v>4.138257736485684e-09</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.456904237</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8.238140284886647e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,31 +26420,31 @@
         <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252496</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252496</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695012</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="G4" t="n">
         <v>6287.480531695052</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695048</v>
+        <v>6287.480531695023</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531696696</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695391</v>
+        <v>6287.480531695011</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
@@ -26453,7 +26453,7 @@
         <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.48053169503</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695052</v>
@@ -26472,10 +26472,10 @@
         <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.08936150905</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150905</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26490,13 +26490,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239066</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-429350.2124630876</v>
+        <v>-429350.2124630878</v>
       </c>
       <c r="C6" t="n">
-        <v>364151.4332478192</v>
+        <v>364151.4332478124</v>
       </c>
       <c r="D6" t="n">
-        <v>536915.7930377043</v>
+        <v>536915.793037704</v>
       </c>
       <c r="E6" t="n">
-        <v>137964.3473575387</v>
+        <v>138276.9886864665</v>
       </c>
       <c r="F6" t="n">
-        <v>638853.2151032961</v>
+        <v>639165.8564322179</v>
       </c>
       <c r="G6" t="n">
-        <v>638853.2151032961</v>
+        <v>639165.8564322176</v>
       </c>
       <c r="H6" t="n">
-        <v>638853.2151032961</v>
+        <v>639165.8564322173</v>
       </c>
       <c r="I6" t="n">
-        <v>638853.2151033009</v>
+        <v>639165.8564322174</v>
       </c>
       <c r="J6" t="n">
-        <v>469439.1982772482</v>
+        <v>469751.8396061696</v>
       </c>
       <c r="K6" t="n">
-        <v>638853.2151032916</v>
+        <v>639165.8564322174</v>
       </c>
       <c r="L6" t="n">
-        <v>638853.2151032969</v>
+        <v>639165.8564322174</v>
       </c>
       <c r="M6" t="n">
-        <v>507968.7581990591</v>
+        <v>508281.3995279822</v>
       </c>
       <c r="N6" t="n">
-        <v>638853.2151032962</v>
+        <v>639165.8564322179</v>
       </c>
       <c r="O6" t="n">
-        <v>638853.2151032953</v>
+        <v>639165.8564322175</v>
       </c>
       <c r="P6" t="n">
-        <v>638853.2151032963</v>
+        <v>639165.8564322175</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498389</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498389</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26758,10 +26758,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341668</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341668</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
         <v>1367.975500341674</v>
@@ -26792,31 +26792,31 @@
         <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352394</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352394</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099641</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522281</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918351</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,16 +26980,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.634524087008331e-12</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5.684341886080801e-12</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644092</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352391</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644092</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644092</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>180.0484795186207</v>
+        <v>68.16698966270656</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>45.84850715904361</v>
+        <v>271.5581625480808</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>330.7262724731769</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>300.78628724846</v>
+        <v>282.2715910041949</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457608</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130014</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205449</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340913</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134385</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>252.5921024254394</v>
+        <v>252.5921024254297</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>139.4512012584699</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>150.3900123338987</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.78628724846</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544768061</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.9354087744535</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457608</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>105.4310422139925</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.1610602114471</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130014</v>
+        <v>43.6252748762541</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205449</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340913</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134385</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
         <v>286.2265992197056</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -29274,10 +29274,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>2.572348954533387e-11</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29328,10 +29328,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.029767535610831e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265681</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730717</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
-        <v>145.6403241227253</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182584</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793948</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853244</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027881</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839291</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712686</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062719</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086946</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
-        <v>237.3018354237506</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179179</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837053</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612544</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360031</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
-        <v>19.52107049255609</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586072</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583791</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675011</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973611</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041621</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315547</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431469982</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274782</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157822</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
-        <v>125.4951289248974</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284967</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841525</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.132977319431581</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.694552507729217</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>15.06611229599251</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425684</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
-        <v>119.8048622964557</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.87619135254</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309421</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979536</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509631</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561262</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>204.94842329845</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881257</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662461</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288099</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843018</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523015</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265681</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730717</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
-        <v>145.6403241227253</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182584</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793948</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853244</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027881</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839291</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712686</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062719</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086946</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237506</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179179</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837053</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612544</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360031</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.52107049255609</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586072</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583791</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675011</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973611</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041621</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315547</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431469982</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274782</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157822</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248974</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284967</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841525</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.132977319431581</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729217</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>15.06611229599251</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425684</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964557</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.87619135254</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309421</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979536</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509631</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561262</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.94842329845</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881257</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662461</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288099</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843018</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523015</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31852,10 +31852,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>403.852496713802</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>338.6542681503479</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.49939899634841</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135317</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067223</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663263</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817546</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162525</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175635</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159384</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.586862645999</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236474</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669198</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292895</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651518</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078727</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659437</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521088</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420743</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422566</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473046</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.546647686209</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071753</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565887</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742415</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937729</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275946</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189893</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121561</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869244</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796254</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355166</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588138</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392029</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106772</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920043</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417302</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515919</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670473</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532748</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099318</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467216</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.49939899634841</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135317</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067223</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663263</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817546</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162525</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175635</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159384</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.586862645999</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236474</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669198</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292895</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651518</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078727</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659437</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521088</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420743</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422566</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473046</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.546647686209</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071753</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565887</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742415</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937729</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275946</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189893</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121561</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869244</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796254</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355166</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588138</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392029</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106772</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920043</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417302</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515919</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670473</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532748</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099318</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467216</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>400.5469039565762</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241328</v>
+        <v>487.5747176873218</v>
       </c>
       <c r="L2" t="n">
         <v>240.0230113315071</v>
@@ -34710,19 +34710,19 @@
         <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>340.1212901205189</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151797</v>
+        <v>207.340673691504</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806374</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
         <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352464</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>395.1603892304033</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
         <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915721</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344142</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153372</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755154</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873382</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495818</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510024</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342451</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961844</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321212</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>336.9735885949476</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L6" t="n">
-        <v>300.315100117487</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821438</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482214</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025538</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>251.996694813148</v>
+        <v>497.4637052508702</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656098</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225427</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978289</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6066995266571</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912582</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597942</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301917</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701659</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633435</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643129</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915721</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344142</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153372</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755154</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873382</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495818</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510024</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342451</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961844</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321212</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057207</v>
+        <v>453.0121960057228</v>
       </c>
       <c r="L9" t="n">
-        <v>300.315100117487</v>
+        <v>545.7821105552085</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821438</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482214</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025538</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>251.996694813148</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.4056613270913</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978289</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266571</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912582</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597942</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301917</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701659</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633435</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643129</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>272.5107846304687</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236316375</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.70871103964</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036774</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462653</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902908</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193475</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243122</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683779</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924703</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754076</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678976</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674304</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641906</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238421</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121442</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295265</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096338</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191299</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010435</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899058</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060439</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066237</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998975</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236316375</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.70871103964</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036774</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462653</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902908</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193475</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243122</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683779</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924703</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754076</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678976</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674304</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641906</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238421</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121442</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295367</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.342014319131</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010445</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899069</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.261899706045</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066247</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295438</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409636</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191325</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010461</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899085</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060464</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306626</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998994</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>257.9506595121318</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
